--- a/teaching/traditional_assets/database/data/palestinian_authority/palestinian_authority_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/palestinian_authority/palestinian_authority_banks_regional.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1525</v>
+        <v>0.12735</v>
       </c>
       <c r="E2">
-        <v>0.172</v>
+        <v>0.11745</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.75</v>
+        <v>20.24</v>
       </c>
       <c r="L2">
-        <v>0.2184734513274336</v>
+        <v>0.2071647901740021</v>
       </c>
       <c r="M2">
-        <v>9.469999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="N2">
-        <v>0.03300801673056814</v>
+        <v>0.03413654618473896</v>
       </c>
       <c r="O2">
-        <v>0.4794936708860759</v>
+        <v>0.4619565217391304</v>
       </c>
       <c r="P2">
-        <v>9.469999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="Q2">
-        <v>0.03300801673056814</v>
+        <v>0.03413654618473896</v>
       </c>
       <c r="R2">
-        <v>0.4794936708860759</v>
+        <v>0.4619565217391304</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,55 +639,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>400.5</v>
+        <v>530</v>
       </c>
       <c r="V2">
-        <v>1.395956779365633</v>
+        <v>1.935012778386273</v>
       </c>
       <c r="W2">
-        <v>0.09767840599072761</v>
+        <v>0.0903917677265812</v>
       </c>
       <c r="X2">
-        <v>0.05144376447101605</v>
+        <v>0.05900832526024263</v>
       </c>
       <c r="Y2">
-        <v>0.04623464151971156</v>
+        <v>0.03138344246633856</v>
       </c>
       <c r="Z2">
-        <v>-0.4593729356166473</v>
+        <v>-0.5599495644199909</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0507799008721226</v>
+        <v>0.05658831609046116</v>
       </c>
       <c r="AC2">
-        <v>-0.0507799008721226</v>
+        <v>-0.05658831609046116</v>
       </c>
       <c r="AD2">
-        <v>9.417999999999999</v>
+        <v>40.06</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>9.417999999999999</v>
+        <v>40.06</v>
       </c>
       <c r="AG2">
-        <v>-391.082</v>
+        <v>-489.94</v>
       </c>
       <c r="AH2">
-        <v>0.03178342186434843</v>
+        <v>0.127595872085616</v>
       </c>
       <c r="AI2">
-        <v>0.04053926084074415</v>
+        <v>0.1483923544228775</v>
       </c>
       <c r="AJ2">
-        <v>3.753834635541648</v>
+        <v>2.267820773930753</v>
       </c>
       <c r="AK2">
-        <v>2.325349918540629</v>
+        <v>1.884094754653131</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -704,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Quds Bank (PLSE:QUDS)</t>
+          <t>Arab Islamic Bank P.L.C. (PLSE:AIB)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.134</v>
+        <v>0.166</v>
       </c>
       <c r="E3">
-        <v>0.196</v>
+        <v>0.147</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,28 +731,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.6</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="L3">
-        <v>0.2372188139059305</v>
+        <v>0.1945945945945946</v>
       </c>
       <c r="M3">
-        <v>6.84</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>0.048</v>
+        <v>0.02842928216062545</v>
       </c>
       <c r="O3">
-        <v>0.5896551724137931</v>
+        <v>0.4629629629629629</v>
       </c>
       <c r="P3">
-        <v>6.84</v>
+        <v>4</v>
       </c>
       <c r="Q3">
-        <v>0.048</v>
+        <v>0.02842928216062545</v>
       </c>
       <c r="R3">
-        <v>0.5896551724137931</v>
+        <v>0.4629629629629629</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,55 +761,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>265.5</v>
+        <v>248.7</v>
       </c>
       <c r="V3">
-        <v>1.863157894736842</v>
+        <v>1.767590618336887</v>
       </c>
       <c r="W3">
-        <v>0.1129503407984421</v>
+        <v>0.07748878923766817</v>
       </c>
       <c r="X3">
-        <v>0.05076117798113648</v>
+        <v>0.05587329273951518</v>
       </c>
       <c r="Y3">
-        <v>0.06218916281730558</v>
+        <v>0.02161549649815299</v>
       </c>
       <c r="Z3">
-        <v>-0.4842063570650559</v>
+        <v>-3.066298342541435</v>
       </c>
       <c r="AA3">
         <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.05072368337102187</v>
+        <v>0.05502392782839974</v>
       </c>
       <c r="AC3">
-        <v>-0.05072368337102187</v>
+        <v>-0.05502392782839974</v>
       </c>
       <c r="AD3">
-        <v>0.398</v>
+        <v>8.66</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.398</v>
+        <v>8.66</v>
       </c>
       <c r="AG3">
-        <v>-265.102</v>
+        <v>-240.04</v>
       </c>
       <c r="AH3">
-        <v>0.0027852034318185</v>
+        <v>0.05798071772897698</v>
       </c>
       <c r="AI3">
-        <v>0.00355999212866062</v>
+        <v>0.06935768060227455</v>
       </c>
       <c r="AJ3">
-        <v>2.162297515538083</v>
+        <v>2.416347896114355</v>
       </c>
       <c r="AK3">
-        <v>1.724779118033598</v>
+        <v>1.938307493540052</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -826,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arab Islamic Bank P.L.C. (PLSE:AIB)</t>
+          <t>Quds Bank (PLSE:QUDS)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.171</v>
+        <v>0.08869999999999999</v>
       </c>
       <c r="E4">
-        <v>0.148</v>
+        <v>0.08789999999999999</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -853,28 +853,28 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.15</v>
+        <v>11.6</v>
       </c>
       <c r="L4">
-        <v>0.1963855421686747</v>
+        <v>0.2176360225140713</v>
       </c>
       <c r="M4">
-        <v>2.63</v>
+        <v>5.35</v>
       </c>
       <c r="N4">
-        <v>0.01821329639889196</v>
+        <v>0.04016516516516517</v>
       </c>
       <c r="O4">
-        <v>0.3226993865030675</v>
+        <v>0.4612068965517241</v>
       </c>
       <c r="P4">
-        <v>2.63</v>
+        <v>5.35</v>
       </c>
       <c r="Q4">
-        <v>0.01821329639889196</v>
+        <v>0.04016516516516517</v>
       </c>
       <c r="R4">
-        <v>0.3226993865030675</v>
+        <v>0.4612068965517241</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -883,55 +883,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>135</v>
+        <v>281.3</v>
       </c>
       <c r="V4">
-        <v>0.9349030470914127</v>
+        <v>2.111861861861862</v>
       </c>
       <c r="W4">
-        <v>0.08240647118301314</v>
+        <v>0.1032947462154942</v>
       </c>
       <c r="X4">
-        <v>0.05212635096089561</v>
+        <v>0.06214335778097009</v>
       </c>
       <c r="Y4">
-        <v>0.03028012022211753</v>
+        <v>0.04115138843452412</v>
       </c>
       <c r="Z4">
-        <v>-0.4331941544885178</v>
+        <v>-0.3331250000000001</v>
       </c>
       <c r="AA4">
         <v>-0</v>
       </c>
       <c r="AB4">
-        <v>0.05083611837322333</v>
+        <v>0.05815270435252258</v>
       </c>
       <c r="AC4">
-        <v>-0.05083611837322333</v>
+        <v>-0.05815270435252258</v>
       </c>
       <c r="AD4">
-        <v>9.02</v>
+        <v>31.4</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>9.02</v>
+        <v>31.4</v>
       </c>
       <c r="AG4">
-        <v>-125.98</v>
+        <v>-249.9</v>
       </c>
       <c r="AH4">
-        <v>0.05879285621170642</v>
+        <v>0.1907654921020656</v>
       </c>
       <c r="AI4">
-        <v>0.07484234981745769</v>
+        <v>0.2164024810475534</v>
       </c>
       <c r="AJ4">
-        <v>-6.839305103148751</v>
+        <v>2.141388174807198</v>
       </c>
       <c r="AK4">
-        <v>8.700276243093921</v>
+        <v>1.834801762114538</v>
       </c>
       <c r="AL4">
         <v>0</v>
